--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/采购.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/采购.xlsx
@@ -1,46 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiaodan/kerui/ideaworkspace/java/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="480" windowWidth="24680" windowHeight="15540"/>
+    <workbookView xWindow="1695" yWindow="480" windowWidth="24675" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>采购计划单号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目执行单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>品类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -50,21 +37,56 @@
   </si>
   <si>
     <t>国家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购下达时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>油气非油气</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购申请单下达时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同签订时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额(美元)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER20170281</t>
+  </si>
+  <si>
+    <t>XCB586247</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵配件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛俄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>油气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,16 +156,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,45 +466,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>42812</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43076</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>145000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
